--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7EAFD6CD-5D32-4619-8404-DD3B0F581EF6}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9212F75E-0E92-4BAB-BA1F-4800511E2B19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$7:$D$24,Specifications!$C$28:$D$37,Specifications!$C$39:$D$48</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$I$28:$I$37,Specifications!$M$28:$M$37,Specifications!$Q$28:$Q$37,Specifications!$U$28:$U$37,Specifications!$Y$28:$Y$37,Specifications!$Y$39:$Y$48,Specifications!$U$39:$U$48,Specifications!$Q$39:$Q$48,Specifications!$M$39:$M$48,Specifications!$I$39:$I$48,Specifications!$I$51:$I$61,Specifications!$M$51:$M$61,Specifications!$Q$51:$Q$61,Specifications!$U$51:$U$61,Specifications!$Y$51:$Y$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="87">
   <si>
     <t>Website</t>
   </si>
@@ -40,12 +44,6 @@
   </si>
   <si>
     <t>Fax</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
   </si>
   <si>
     <t>Salutation</t>
@@ -279,9 +277,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Title of Template</t>
   </si>
   <si>
@@ -304,9 +299,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <r>
@@ -357,10 +349,7 @@
     <t>SAGE: Custom Entity (optional)</t>
   </si>
   <si>
-    <t>not required</t>
-  </si>
-  <si>
-    <t>some other notes</t>
+    <t>this is a note</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1771,6 +1760,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2610,10 +2604,10 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2627,14 +2621,14 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2645,7 +2639,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2660,39 +2654,39 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="44"/>
       <c r="G4" s="126" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H4" s="126"/>
       <c r="I4" s="126"/>
       <c r="J4" s="7"/>
       <c r="K4" s="126" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L4" s="126"/>
       <c r="M4" s="126"/>
       <c r="O4" s="126" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P4" s="126"/>
       <c r="Q4" s="126"/>
       <c r="S4" s="122" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T4" s="123"/>
       <c r="U4" s="124"/>
       <c r="W4" s="122" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X4" s="123"/>
       <c r="Y4" s="124"/>
@@ -2700,59 +2694,59 @@
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q6" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="U6" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="Y6" s="94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2780,495 +2774,493 @@
     </row>
     <row r="8" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="68"/>
       <c r="G8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="82" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="82" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="O8" s="81"/>
-      <c r="P8" s="69"/>
+      <c r="P8" s="128"/>
       <c r="Q8" s="82"/>
       <c r="S8" s="97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T8" s="69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U8" s="98"/>
-      <c r="W8" s="97" t="s">
-        <v>5</v>
-      </c>
+      <c r="W8" s="97"/>
       <c r="X8" s="69"/>
-      <c r="Y8" s="98" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y8" s="98"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>72</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="52"/>
       <c r="G9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="129" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O9" s="83"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="129"/>
       <c r="Q9" s="84"/>
       <c r="S9" s="99" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U9" s="100"/>
-      <c r="W9" s="101" t="s">
-        <v>6</v>
-      </c>
+      <c r="W9" s="101"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y9" s="100"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="52"/>
       <c r="G10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O10" s="83"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="129"/>
       <c r="Q10" s="84"/>
       <c r="S10" s="101"/>
       <c r="T10" s="5"/>
       <c r="U10" s="100"/>
-      <c r="W10" s="101" t="s">
-        <v>7</v>
-      </c>
+      <c r="W10" s="101"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y10" s="100"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="52"/>
       <c r="G11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="129" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O11" s="83"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="129"/>
       <c r="Q11" s="84"/>
       <c r="S11" s="101"/>
       <c r="T11" s="5"/>
       <c r="U11" s="100"/>
-      <c r="W11" s="101" t="s">
-        <v>8</v>
-      </c>
+      <c r="W11" s="101"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y11" s="100"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="52"/>
       <c r="G12" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="83"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="84"/>
       <c r="O12" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="P12" s="129" t="s">
+        <v>7</v>
+      </c>
       <c r="Q12" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S12" s="101"/>
       <c r="T12" s="5"/>
       <c r="U12" s="100"/>
-      <c r="W12" s="101" t="s">
-        <v>9</v>
-      </c>
+      <c r="W12" s="101"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="52"/>
       <c r="G13" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="L13" s="130" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="P13" s="130" t="s">
+        <v>16</v>
+      </c>
       <c r="Q13" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S13" s="101"/>
       <c r="T13" s="5"/>
       <c r="U13" s="100"/>
-      <c r="W13" s="101" t="s">
-        <v>10</v>
-      </c>
+      <c r="W13" s="101"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y13" s="100"/>
     </row>
     <row r="14" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D14" s="67"/>
       <c r="E14" s="68"/>
       <c r="G14" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J14" s="70"/>
       <c r="K14" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="71"/>
+        <v>17</v>
+      </c>
+      <c r="L14" s="131" t="s">
+        <v>17</v>
+      </c>
       <c r="M14" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="P14" s="131" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="71"/>
       <c r="U14" s="103"/>
-      <c r="W14" s="102" t="s">
-        <v>11</v>
-      </c>
+      <c r="W14" s="102"/>
       <c r="X14" s="71"/>
-      <c r="Y14" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y14" s="103"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="52"/>
       <c r="G15" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="88" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="132" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="88" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="P15" s="132" t="s">
+        <v>18</v>
+      </c>
       <c r="Q15" s="88" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S15" s="101"/>
       <c r="T15" s="5"/>
       <c r="U15" s="100"/>
-      <c r="W15" s="101" t="s">
-        <v>12</v>
-      </c>
+      <c r="W15" s="101"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y15" s="100"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="52"/>
       <c r="G16" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="129" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O16" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="P16" s="129" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S16" s="101"/>
       <c r="T16" s="5"/>
       <c r="U16" s="100"/>
-      <c r="W16" s="101" t="s">
-        <v>13</v>
-      </c>
+      <c r="W16" s="101"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y16" s="100"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="52"/>
       <c r="G17" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I17" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L17" s="129" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="P17" s="129" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S17" s="101"/>
       <c r="T17" s="5"/>
       <c r="U17" s="100"/>
-      <c r="W17" s="101" t="s">
-        <v>14</v>
-      </c>
+      <c r="W17" s="101"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y17" s="100"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="52"/>
       <c r="G18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="129" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="P18" s="129" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S18" s="101"/>
       <c r="T18" s="5"/>
       <c r="U18" s="100"/>
-      <c r="W18" s="101" t="s">
-        <v>15</v>
-      </c>
+      <c r="W18" s="101"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y18" s="100"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="52"/>
       <c r="G19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="129" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O19" s="83"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="129"/>
       <c r="Q19" s="84"/>
       <c r="S19" s="101"/>
       <c r="T19" s="5"/>
       <c r="U19" s="100"/>
-      <c r="W19" s="101" t="s">
-        <v>16</v>
-      </c>
+      <c r="W19" s="101"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y19" s="100"/>
     </row>
     <row r="20" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
@@ -3276,81 +3268,79 @@
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="68"/>
       <c r="G20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="I20" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="131" t="s">
+        <v>2</v>
+      </c>
       <c r="M20" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="71"/>
+      <c r="P20" s="131" t="s">
+        <v>2</v>
+      </c>
       <c r="Q20" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S20" s="102"/>
       <c r="T20" s="71"/>
       <c r="U20" s="103"/>
-      <c r="W20" s="102" t="s">
-        <v>2</v>
-      </c>
+      <c r="W20" s="102"/>
       <c r="X20" s="71"/>
-      <c r="Y20" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y20" s="103"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="52"/>
       <c r="G21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L21" s="129" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O21" s="83"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="129"/>
       <c r="Q21" s="84"/>
       <c r="S21" s="101"/>
       <c r="T21" s="5"/>
       <c r="U21" s="100"/>
-      <c r="W21" s="101" t="s">
-        <v>17</v>
-      </c>
+      <c r="W21" s="101"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="100" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y21" s="100"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3363,31 +3353,31 @@
       <c r="G22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I22" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="79"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="80"/>
       <c r="O22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="130" t="s">
+        <v>0</v>
+      </c>
       <c r="Q22" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="S22" s="95"/>
       <c r="T22" s="6"/>
       <c r="U22" s="96"/>
-      <c r="W22" s="95" t="s">
-        <v>0</v>
-      </c>
+      <c r="W22" s="95"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="96" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y22" s="96"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -3455,106 +3445,106 @@
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="G26" s="127" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="127"/>
       <c r="I26" s="127"/>
       <c r="J26" s="18"/>
       <c r="K26" s="127" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L26" s="127"/>
       <c r="M26" s="127"/>
       <c r="N26" s="18"/>
       <c r="O26" s="127" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P26" s="127"/>
       <c r="Q26" s="127"/>
       <c r="R26" s="18"/>
       <c r="S26" s="125" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T26" s="125"/>
       <c r="U26" s="125"/>
       <c r="V26" s="18"/>
       <c r="W26" s="125" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="X26" s="125"/>
       <c r="Y26" s="125"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="U27" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="W27" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="X27" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="Y27" s="94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="34"/>
@@ -3562,7 +3552,7 @@
       <c r="G28" s="83"/>
       <c r="H28" s="5"/>
       <c r="I28" s="84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K28" s="83"/>
       <c r="L28" s="5"/>
@@ -3579,10 +3569,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="35"/>
@@ -3590,7 +3580,7 @@
       <c r="G29" s="83"/>
       <c r="H29" s="5"/>
       <c r="I29" s="84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29" s="83"/>
       <c r="L29" s="5"/>
@@ -3607,10 +3597,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
@@ -3633,10 +3623,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
@@ -3659,7 +3649,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="41"/>
@@ -3683,7 +3673,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="41"/>
@@ -3707,7 +3697,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="41"/>
@@ -3731,7 +3721,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="41"/>
@@ -3755,7 +3745,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="41"/>
@@ -3779,7 +3769,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
@@ -3803,65 +3793,65 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M38" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" s="108" t="s">
-        <v>37</v>
-      </c>
       <c r="Q38" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="U38" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="W38" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="X38" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="Y38" s="94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="40"/>
@@ -3885,7 +3875,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="41"/>
@@ -3909,7 +3899,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="41"/>
@@ -3933,7 +3923,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="41"/>
@@ -3957,7 +3947,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="41"/>
@@ -3981,7 +3971,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="41"/>
@@ -4005,7 +3995,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="41"/>
@@ -4029,7 +4019,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="41"/>
@@ -4053,7 +4043,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="41"/>
@@ -4077,7 +4067,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="42"/>
@@ -4108,68 +4098,68 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S50" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="U50" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="W50" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="Y50" s="94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="119" t="s">
         <v>64</v>
-      </c>
-      <c r="B51" s="119" t="s">
-        <v>66</v>
       </c>
       <c r="C51" s="120"/>
       <c r="D51" s="121"/>
@@ -4192,10 +4182,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="113" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C52" s="114"/>
       <c r="D52" s="115"/>
@@ -4218,10 +4208,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="113" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C53" s="114"/>
       <c r="D53" s="115"/>
@@ -4244,10 +4234,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C54" s="114"/>
       <c r="D54" s="115"/>
@@ -4270,24 +4260,24 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="114"/>
       <c r="D55" s="115"/>
       <c r="E55" s="46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I55" s="84" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K55" s="83"/>
       <c r="L55" s="5"/>
@@ -4436,10 +4426,12 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9950k6/vFH8P3YcjTRhoYVE6tXjawKPHR2p7JQdIGxDwvgtxVac2+2NBS+1qS1XDLsepJqMMKx4ZLjZiEHNG1Q==" saltValue="YlGoJXtjdMNX0qFLcaA8cg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="A1" name="title"/>
     <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
     <protectedRange sqref="A7:Q24" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y61" name="customEntity"/>
   </protectedRanges>
   <mergeCells count="20">
     <mergeCell ref="S4:U4"/>
@@ -4512,6 +4504,14 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 Y39:Y48 U39:U48 Q39:Q48 M39:M48 I39:I48 I51:I61 M51:M61 Q51:Q61 U51:U61 Y51:Y61" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9212F75E-0E92-4BAB-BA1F-4800511E2B19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74E69F-62A5-4960-B2F6-8FADAD29532B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$7:$D$24,Specifications!$C$28:$D$37,Specifications!$C$39:$D$48</definedName>
-    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$I$28:$I$37,Specifications!$M$28:$M$37,Specifications!$Q$28:$Q$37,Specifications!$U$28:$U$37,Specifications!$Y$28:$Y$37,Specifications!$Y$39:$Y$48,Specifications!$U$39:$U$48,Specifications!$Q$39:$Q$48,Specifications!$M$39:$M$48,Specifications!$I$39:$I$48,Specifications!$I$51:$I$61,Specifications!$M$51:$M$61,Specifications!$Q$51:$Q$61,Specifications!$U$51:$U$61,Specifications!$Y$51:$Y$61</definedName>
+    <definedName name="checkbox">Specifications!$C$7:$D$26,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$26,Specifications!$M$7:$M$26,Specifications!$Q$7:$Q$26,Specifications!$U$7:$U$26,Specifications!$Y$7:$Y$26,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$56:$I$66,Specifications!$M$56:$M$66,Specifications!$Q$56:$Q$66,Specifications!$U$56:$U$66,Specifications!$Y$56:$Y$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
     <t>Website</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Salutation</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -70,54 +61,12 @@
     <t>State</t>
   </si>
   <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>MailingStreet</t>
-  </si>
-  <si>
-    <t>MailingCity</t>
-  </si>
-  <si>
-    <t>MailingState</t>
-  </si>
-  <si>
-    <t>MailingPostalCode</t>
-  </si>
-  <si>
-    <t>MailingCountry</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>BillingStreet</t>
-  </si>
-  <si>
-    <t>BillingCity</t>
-  </si>
-  <si>
-    <t>BillingState</t>
-  </si>
-  <si>
-    <t>BillingPostalCode</t>
-  </si>
-  <si>
-    <t>BillingCountry</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
@@ -148,61 +97,10 @@
     <t>snapADDY - Contact Fields</t>
   </si>
   <si>
-    <t>snapADDY - Trade Fair Questions</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>Question 1</t>
-  </si>
-  <si>
-    <t>Question 2</t>
-  </si>
-  <si>
-    <t>Question 3</t>
-  </si>
-  <si>
-    <t>Question 4</t>
-  </si>
-  <si>
-    <t>Question 5</t>
-  </si>
-  <si>
-    <t>Question 6</t>
-  </si>
-  <si>
-    <t>Question 7</t>
-  </si>
-  <si>
-    <t>Question 8</t>
-  </si>
-  <si>
-    <t>Question 9</t>
-  </si>
-  <si>
-    <t>Question 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2 </t>
-  </si>
-  <si>
     <t>Automatic Fields</t>
   </si>
   <si>
-    <t>Question Type</t>
-  </si>
-  <si>
-    <t>dropdown</t>
-  </si>
-  <si>
-    <t>multiselect</t>
-  </si>
-  <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>signature</t>
   </si>
   <si>
     <t>picklist</t>
@@ -286,70 +184,196 @@
     <t>Report created by user</t>
   </si>
   <si>
-    <t>Export Type</t>
-  </si>
-  <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Question 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e.g. Product Interest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e.g. Customer Type</t>
-    </r>
-  </si>
-  <si>
     <t>CRM System: SAGE</t>
   </si>
   <si>
+    <t>SAGE: Custom Entity</t>
+  </si>
+  <si>
+    <t>SAGE: Custom Entity (optional)</t>
+  </si>
+  <si>
+    <t>this is a note</t>
+  </si>
+  <si>
+    <t>SAGE: Person</t>
+  </si>
+  <si>
+    <t>personsalutation</t>
+  </si>
+  <si>
+    <t>personfirstname</t>
+  </si>
+  <si>
+    <t>personlastname</t>
+  </si>
+  <si>
+    <t>persontitle</t>
+  </si>
+  <si>
+    <t>personemail</t>
+  </si>
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>companyaddress1</t>
+  </si>
+  <si>
+    <t>companycity</t>
+  </si>
+  <si>
+    <t>companypostcode</t>
+  </si>
+  <si>
+    <t>companycountry</t>
+  </si>
+  <si>
+    <t>personphonenumber</t>
+  </si>
+  <si>
+    <t>personfaxnumber</t>
+  </si>
+  <si>
+    <t>companywebsite</t>
+  </si>
+  <si>
+    <t>companystate</t>
+  </si>
+  <si>
+    <t>salutation</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>titlecode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
     <t>SAGE: Lead</t>
   </si>
   <si>
-    <t>SAGE: Contact</t>
-  </si>
-  <si>
-    <t>SAGE: Account</t>
-  </si>
-  <si>
-    <t>SAGE: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAGE: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>this is a note</t>
+    <t>SAGE: Company</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>snapADDY - Vorlage MESSE Besuchbericht</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Example: "Which products do you use already?"</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Question 1:</t>
+  </si>
+  <si>
+    <t>Question 2:</t>
+  </si>
+  <si>
+    <t>Question 3:</t>
+  </si>
+  <si>
+    <t>Question 4:</t>
+  </si>
+  <si>
+    <t>Question 5:</t>
+  </si>
+  <si>
+    <t>Question 6:</t>
+  </si>
+  <si>
+    <t>Question 7:</t>
+  </si>
+  <si>
+    <t>Question 8:</t>
+  </si>
+  <si>
+    <t>Question 9:</t>
+  </si>
+  <si>
+    <t>Question 10:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Company Name</t>
   </si>
 </sst>
 </file>
@@ -439,8 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -532,37 +556,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -613,32 +606,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
@@ -714,19 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -834,17 +788,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
@@ -990,51 +933,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,28 +1279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF6FEB6F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF6FEB6F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF6FEB6F"/>
@@ -1466,6 +1342,153 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF00A376"/>
       </left>
@@ -1512,9 +1535,7 @@
       <top style="thick">
         <color rgb="FF00A376"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1523,9 +1544,7 @@
       <top style="thick">
         <color rgb="FF00A376"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1536,8 +1555,228 @@
       <top style="thick">
         <color rgb="FF00A376"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00A376"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00A376"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6FEB6F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF6FEB6F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6FEB6F"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF6FEB6F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6FEB6F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF6FEB6F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1556,176 +1795,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1733,7 +1844,146 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,34 +1992,795 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1976,11 +2987,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstColumn" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="84"/>
+      <tableStyleElement type="headerRow" dxfId="83"/>
+      <tableStyleElement type="firstColumn" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2009,77 +3020,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Pfeil: nach rechts 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EC3821-329B-401E-9D77-590903C397BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5709138" y="5401009"/>
-          <a:ext cx="394190" cy="203688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64615"/>
-            <a:gd name="adj2" fmla="val 96695"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="9DA600"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2162,21 +3102,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>197826</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Pfeil: nach rechts 28">
+        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0843272-B443-4557-BFCA-60944E4CA898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,13 +3124,84 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5732584" y="7631723"/>
+          <a:off x="5732584" y="9771185"/>
           <a:ext cx="205157" cy="203688"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
             <a:gd name="adj1" fmla="val 64615"/>
             <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FE6C36"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>949569</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>153866</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Pfeil: nach rechts 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6EB17F-59F9-428C-AD5A-11676E16E7DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5582529" y="5971190"/>
+          <a:ext cx="370157" cy="213653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 96695"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2233,21 +3244,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Pfeil: nach rechts 29">
+        <xdr:cNvPr id="5" name="Pfeil: nach rechts 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564DA0CA-33A0-435E-935A-029DEA885B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D0F2F2-2CD0-4D05-9F84-3A7DFC221671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,8 +3266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5732584" y="9771185"/>
-          <a:ext cx="205157" cy="203688"/>
+          <a:off x="5609785" y="8683869"/>
+          <a:ext cx="182150" cy="206472"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2269,7 +3280,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FE6C36"/>
+            <a:srgbClr val="9DA600"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2601,10 +3612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,9 +3628,11 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="13" width="15" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
     <col min="22" max="22" width="1.5703125" customWidth="1"/>
@@ -2627,8 +3640,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>61</v>
+      <c r="A1" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2638,8 +3651,8 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>80</v>
+      <c r="A2" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2649,1867 +3662,2268 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="63"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="G3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="G4" s="126" t="s">
+      <c r="D4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="G4" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="O4" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="S4" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="124"/>
-      <c r="W4" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="124"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="S4" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="136"/>
+      <c r="U4" s="137"/>
+      <c r="W4" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="137"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>33</v>
+      <c r="A6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="94" t="s">
-        <v>33</v>
+      <c r="K6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="75" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="51"/>
-      <c r="G7" s="79"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="36"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="80"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="79"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="80"/>
-      <c r="O7" s="79"/>
+      <c r="M7" s="62"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="80"/>
-      <c r="S7" s="95"/>
+      <c r="Q7" s="62"/>
+      <c r="S7" s="76"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="96"/>
-      <c r="W7" s="95"/>
+      <c r="U7" s="77"/>
+      <c r="W7" s="76"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="96"/>
-    </row>
-    <row r="8" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="Y7" s="77"/>
+    </row>
+    <row r="8" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="G8" s="81" t="s">
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="G8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="82"/>
-      <c r="S8" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="98"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="98"/>
+      <c r="L8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="65"/>
+      <c r="S8" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="78"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="78"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="52"/>
-      <c r="G9" s="83" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="37"/>
+      <c r="G9" s="64" t="s">
+        <v>77</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="84"/>
-      <c r="S9" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="10" t="s">
+      <c r="K9" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="100"/>
-      <c r="W9" s="101"/>
+      <c r="M9" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="63"/>
+      <c r="S9" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="W9" s="79"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="100"/>
+      <c r="Y9" s="78"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="83" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="37"/>
+      <c r="G10" s="64" t="s">
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="84" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="84"/>
-      <c r="S10" s="101"/>
+      <c r="K10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="65"/>
+      <c r="S10" s="79"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="100"/>
-      <c r="W10" s="101"/>
+      <c r="U10" s="78"/>
+      <c r="W10" s="79"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="100"/>
+      <c r="Y10" s="78"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="83" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="G11" s="64" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="84"/>
-      <c r="S11" s="101"/>
+      <c r="K11" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="65"/>
+      <c r="S11" s="79"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="100"/>
-      <c r="W11" s="101"/>
+      <c r="U11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="100"/>
+      <c r="Y11" s="78"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="52"/>
-      <c r="G12" s="83" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="37"/>
+      <c r="G12" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="84" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="84"/>
-      <c r="O12" s="83" t="s">
+      <c r="K12" s="64"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="65"/>
+      <c r="O12" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="101"/>
+      <c r="S12" s="79"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="100"/>
-      <c r="W12" s="101"/>
+      <c r="U12" s="78"/>
+      <c r="W12" s="79"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="78"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="52"/>
-      <c r="G13" s="79" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="37"/>
+      <c r="G13" s="61" t="s">
+        <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="101"/>
+      <c r="K13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="79"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="100"/>
-      <c r="W13" s="101"/>
+      <c r="U13" s="78"/>
+      <c r="W13" s="79"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="100"/>
-    </row>
-    <row r="14" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="G14" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="102"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="103"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="103"/>
+      <c r="Y13" s="78"/>
+    </row>
+    <row r="14" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="G14" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="80"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="81"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="81"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="52"/>
-      <c r="G15" s="87" t="s">
-        <v>10</v>
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="37"/>
+      <c r="G15" s="68" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="88" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>21</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="101"/>
+      <c r="K15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="79"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="100"/>
-      <c r="W15" s="101"/>
+      <c r="U15" s="78"/>
+      <c r="W15" s="79"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="100"/>
+      <c r="Y15" s="78"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="52"/>
-      <c r="G16" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="84" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="37"/>
+      <c r="G16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="129" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="129" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" s="101"/>
+      <c r="K16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="79"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="100"/>
-      <c r="W16" s="101"/>
+      <c r="U16" s="78"/>
+      <c r="W16" s="79"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="100"/>
+      <c r="Y16" s="78"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="52"/>
-      <c r="G17" s="83" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="37"/>
+      <c r="G17" s="64" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="84" t="s">
         <v>54</v>
       </c>
+      <c r="I17" s="65" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="101"/>
+      <c r="K17" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="79"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="100"/>
-      <c r="W17" s="101"/>
+      <c r="U17" s="78"/>
+      <c r="W17" s="79"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="100"/>
+      <c r="Y17" s="78"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="52"/>
-      <c r="G18" s="83" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="64" t="s">
+        <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="84" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="101"/>
+      <c r="K18" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="65"/>
+      <c r="O18" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="79"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="100"/>
-      <c r="W18" s="101"/>
+      <c r="U18" s="78"/>
+      <c r="W18" s="79"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="100"/>
+      <c r="Y18" s="78"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="52"/>
-      <c r="G19" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="84" t="s">
-        <v>54</v>
-      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="83"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="84"/>
-      <c r="S19" s="101"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="65"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="65"/>
+      <c r="S19" s="79"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="100"/>
-      <c r="W19" s="101"/>
+      <c r="U19" s="78"/>
+      <c r="W19" s="79"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="100"/>
-    </row>
-    <row r="20" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="Y19" s="78"/>
+    </row>
+    <row r="20" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="G20" s="85" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="G20" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="102"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="103"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="103"/>
+      <c r="H20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="67"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="67"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="81"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="81"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="52"/>
-      <c r="G21" s="83" t="s">
-        <v>15</v>
+      <c r="B21" s="18"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="64" t="s">
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="84" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="83"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="84"/>
-      <c r="S21" s="101"/>
+      <c r="K21" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="79"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="100"/>
-      <c r="W21" s="101"/>
+      <c r="U21" s="78"/>
+      <c r="W21" s="79"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="100"/>
+      <c r="Y21" s="78"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="52"/>
-      <c r="G22" s="79" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="80"/>
-      <c r="O22" s="79" t="s">
+      <c r="L22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="95"/>
+      <c r="P22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="76"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="96"/>
-      <c r="W22" s="95"/>
+      <c r="U22" s="77"/>
+      <c r="W22" s="76"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="96"/>
+      <c r="Y22" s="77"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="52"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="80"/>
+      <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="37"/>
+      <c r="G23" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="79"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="80"/>
-      <c r="O23" s="79"/>
+      <c r="M23" s="62"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="80"/>
-      <c r="S23" s="95"/>
+      <c r="Q23" s="62"/>
+      <c r="S23" s="76"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="96"/>
-      <c r="W23" s="95"/>
+      <c r="U23" s="77"/>
+      <c r="W23" s="76"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="96"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="53"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
+      <c r="Y23" s="77"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="37"/>
+      <c r="G24" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>22</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="106"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="106"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="8"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
+      <c r="K24" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="76"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="77"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="77"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="37"/>
+      <c r="G25" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>22</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="9"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="75"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="9"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="127" t="s">
+      <c r="K25" s="61"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="62"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="62"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="77"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="77"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="38"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="84"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="84"/>
+    </row>
+    <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="8"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="9"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="57"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="9"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="G28" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="127" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y27" s="94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="48"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="84"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="84"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="100"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="100"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="49"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="84"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="84"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="100"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="100"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="49"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="84"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="84"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="84"/>
-      <c r="S30" s="101"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="61"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="65"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="65"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="65"/>
+      <c r="S30" s="79"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="100"/>
-      <c r="W30" s="101"/>
+      <c r="U30" s="78"/>
+      <c r="W30" s="79"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="100"/>
+      <c r="Y30" s="78"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="84"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="84"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="84"/>
-      <c r="S31" s="101"/>
+      <c r="A31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="90"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="65"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="65"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="65"/>
+      <c r="S31" s="79"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="100"/>
-      <c r="W31" s="101"/>
+      <c r="U31" s="78"/>
+      <c r="W31" s="79"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="100"/>
+      <c r="Y31" s="78"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="49"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="84"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="84"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="84"/>
-      <c r="S32" s="101"/>
+        <v>92</v>
+      </c>
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="95"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="65"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="65"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="65"/>
+      <c r="S32" s="79"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="100"/>
-      <c r="W32" s="101"/>
+      <c r="U32" s="78"/>
+      <c r="W32" s="79"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="100"/>
+      <c r="Y32" s="78"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="49"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="84"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="84"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="84"/>
-      <c r="S33" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="95"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="65"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="65"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="65"/>
+      <c r="S33" s="79"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="100"/>
-      <c r="W33" s="101"/>
+      <c r="U33" s="78"/>
+      <c r="W33" s="79"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="100"/>
+      <c r="Y33" s="78"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="49"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="84"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="84"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="84"/>
-      <c r="S34" s="101"/>
+        <v>94</v>
+      </c>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="95"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="65"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="65"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="65"/>
+      <c r="S34" s="79"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="100"/>
-      <c r="W34" s="101"/>
+      <c r="U34" s="78"/>
+      <c r="W34" s="79"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="100"/>
+      <c r="Y34" s="78"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="49"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="84"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="84"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="84"/>
-      <c r="S35" s="101"/>
+        <v>95</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="95"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="65"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="65"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="65"/>
+      <c r="S35" s="79"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="100"/>
-      <c r="W35" s="101"/>
+      <c r="U35" s="78"/>
+      <c r="W35" s="79"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="100"/>
+      <c r="Y35" s="78"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="49"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="84"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="84"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="84"/>
-      <c r="S36" s="101"/>
+        <v>96</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="95"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="65"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="65"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="65"/>
+      <c r="S36" s="79"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="100"/>
-      <c r="W36" s="101"/>
+      <c r="U36" s="78"/>
+      <c r="W36" s="79"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="100"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="50"/>
-      <c r="G37" s="79"/>
+      <c r="Y36" s="78"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="93"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="95"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="80"/>
-      <c r="K37" s="79"/>
+      <c r="I37" s="65"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="80"/>
-      <c r="O37" s="79"/>
+      <c r="M37" s="65"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="80"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="96"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="96"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="U38" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="W38" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="X38" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="48"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="84"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="84"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="112"/>
-      <c r="S39" s="101"/>
+      <c r="Q37" s="65"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="78"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="78"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="93"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="95"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="65"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="65"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="65"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="78"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="78"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="95"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="65"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="65"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="65"/>
+      <c r="S39" s="79"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="100"/>
-      <c r="W39" s="101"/>
+      <c r="U39" s="78"/>
+      <c r="W39" s="79"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="100"/>
+      <c r="Y39" s="78"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="49"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="84"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="84"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="84"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="100"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="100"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="49"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="84"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="84"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="84"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="100"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="100"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="49"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="84"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="84"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="84"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="100"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="100"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="49"/>
-      <c r="G43" s="83"/>
+        <v>100</v>
+      </c>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="98"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="62"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="62"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="62"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="77"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="77"/>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="98"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="72"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="72"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="72"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="84"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="84"/>
+    </row>
+    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="T42" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="U42" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y42" s="115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="90"/>
+      <c r="G43" s="64"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="84"/>
-      <c r="K43" s="83"/>
+      <c r="I43" s="65"/>
+      <c r="K43" s="64"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="84"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="84"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="100"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="100"/>
+      <c r="M43" s="65"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="69"/>
+      <c r="S43" s="110"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="112"/>
+      <c r="W43" s="110"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="112"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="49"/>
-      <c r="G44" s="83"/>
+        <v>92</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="95"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="84"/>
-      <c r="K44" s="83"/>
+      <c r="I44" s="65"/>
+      <c r="K44" s="64"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="84"/>
-      <c r="O44" s="83"/>
+      <c r="M44" s="65"/>
+      <c r="O44" s="64"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="84"/>
-      <c r="S44" s="101"/>
+      <c r="Q44" s="65"/>
+      <c r="S44" s="79"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="100"/>
-      <c r="W44" s="101"/>
+      <c r="U44" s="78"/>
+      <c r="W44" s="79"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="100"/>
+      <c r="Y44" s="78"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="49"/>
-      <c r="G45" s="83"/>
+        <v>93</v>
+      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="95"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="84"/>
-      <c r="K45" s="83"/>
+      <c r="I45" s="65"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="84"/>
-      <c r="O45" s="83"/>
+      <c r="M45" s="65"/>
+      <c r="O45" s="64"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="84"/>
-      <c r="S45" s="101"/>
+      <c r="Q45" s="65"/>
+      <c r="S45" s="79"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="100"/>
-      <c r="W45" s="101"/>
+      <c r="U45" s="78"/>
+      <c r="W45" s="79"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="100"/>
+      <c r="Y45" s="78"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="49"/>
-      <c r="G46" s="83"/>
+        <v>94</v>
+      </c>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="95"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="84"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="65"/>
+      <c r="K46" s="64"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="84"/>
-      <c r="O46" s="83"/>
+      <c r="M46" s="65"/>
+      <c r="O46" s="64"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="84"/>
-      <c r="S46" s="101"/>
+      <c r="Q46" s="65"/>
+      <c r="S46" s="79"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="100"/>
-      <c r="W46" s="101"/>
+      <c r="U46" s="78"/>
+      <c r="W46" s="79"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="100"/>
+      <c r="Y46" s="78"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="49"/>
-      <c r="G47" s="83"/>
+        <v>95</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="95"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="84"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="65"/>
+      <c r="K47" s="64"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="84"/>
-      <c r="O47" s="83"/>
+      <c r="M47" s="65"/>
+      <c r="O47" s="64"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="84"/>
-      <c r="S47" s="101"/>
+      <c r="Q47" s="65"/>
+      <c r="S47" s="79"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="100"/>
-      <c r="W47" s="101"/>
+      <c r="U47" s="78"/>
+      <c r="W47" s="79"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="100"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="50"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="91"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="106"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="106"/>
-    </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="76" t="s">
+      <c r="Y47" s="78"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="95"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="65"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="65"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="65"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="78"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="78"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="95"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="65"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="65"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="65"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="78"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="78"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="95"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="65"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="65"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="65"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="78"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="78"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="95"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="65"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="65"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="65"/>
+      <c r="S51" s="79"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="78"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="78"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="98"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="62"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="62"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="62"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="77"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="77"/>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="103"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="101"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="72"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="72"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="72"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="84"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="83"/>
+      <c r="Y53" s="84"/>
+    </row>
+    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="8"/>
+      <c r="I54" s="9"/>
+      <c r="K54" s="8"/>
+      <c r="M54" s="9"/>
+      <c r="O54" s="8"/>
+      <c r="Q54" s="9"/>
+      <c r="S54" s="8"/>
+      <c r="U54" s="9"/>
+      <c r="W54" s="8"/>
+      <c r="Y54" s="9"/>
+    </row>
+    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="S55" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="T55" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="U55" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="W55" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="X55" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y55" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="33"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="65"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="65"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="65"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="78"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="78"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="34"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="65"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="65"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="65"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="78"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="78"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="127"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="34"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="65"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="65"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="65"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="78"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="78"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q50" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="S50" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="U50" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="W50" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y50" s="94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="45"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="84"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="84"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="84"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="100"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="100"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="46"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="84"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="84"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="84"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="100"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="100"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="46"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="84"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="84"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="84"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="100"/>
-      <c r="W53" s="101"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="100"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="46"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="84"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="84"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="84"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="100"/>
-      <c r="W54" s="101"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="100"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="83"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="84"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="84"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="100"/>
-      <c r="W55" s="101"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="100"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="46"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="84"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="84"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="84"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="100"/>
-      <c r="W56" s="101"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="100"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="46"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="84"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="84"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="84"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="100"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="100"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="46"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="84"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="84"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="84"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="100"/>
-      <c r="W58" s="101"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="100"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="46"/>
-      <c r="G59" s="83"/>
+      <c r="B59" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="127"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="34"/>
+      <c r="G59" s="64"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="84"/>
-      <c r="K59" s="83"/>
+      <c r="I59" s="65"/>
+      <c r="K59" s="64"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="84"/>
-      <c r="O59" s="83"/>
+      <c r="M59" s="65"/>
+      <c r="O59" s="64"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="84"/>
-      <c r="S59" s="101"/>
+      <c r="Q59" s="65"/>
+      <c r="S59" s="79"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="100"/>
-      <c r="W59" s="101"/>
+      <c r="U59" s="78"/>
+      <c r="W59" s="79"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="100"/>
+      <c r="Y59" s="78"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="46"/>
-      <c r="G60" s="83"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="34"/>
+      <c r="G60" s="64"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="84"/>
-      <c r="K60" s="83"/>
+      <c r="I60" s="65"/>
+      <c r="K60" s="64"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="84"/>
-      <c r="O60" s="83"/>
+      <c r="M60" s="65"/>
+      <c r="O60" s="64"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="84"/>
-      <c r="S60" s="101"/>
+      <c r="Q60" s="65"/>
+      <c r="S60" s="79"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="100"/>
-      <c r="W60" s="101"/>
+      <c r="U60" s="78"/>
+      <c r="W60" s="79"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="100"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="47"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="91"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="91"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="91"/>
-      <c r="S61" s="104"/>
-      <c r="T61" s="105"/>
-      <c r="U61" s="106"/>
-      <c r="W61" s="104"/>
-      <c r="X61" s="105"/>
-      <c r="Y61" s="106"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="Y60" s="78"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="34"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="65"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="65"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="65"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="78"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="78"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="34"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="65"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="65"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="65"/>
+      <c r="S62" s="79"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="78"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="78"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="34"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="65"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="65"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="65"/>
+      <c r="S63" s="79"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="78"/>
+      <c r="W63" s="79"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="78"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="34"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="65"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="65"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="65"/>
+      <c r="S64" s="79"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="78"/>
+      <c r="W64" s="79"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="78"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="34"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="65"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="65"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="65"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="78"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="78"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="35"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="72"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="72"/>
+      <c r="S66" s="82"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="84"/>
+      <c r="W66" s="82"/>
+      <c r="X66" s="83"/>
+      <c r="Y66" s="84"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A1" name="title"/>
-    <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
-    <protectedRange sqref="A7:Q24" name="Contact Fields"/>
-    <protectedRange sqref="S4:Y61" name="customEntity"/>
+    <protectedRange sqref="A56:Y66" name="Questionnaire"/>
+    <protectedRange sqref="A7:G7 A8:F8 J7:K7 J8 A9:G26 J9:K26 N7:O26" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y6 S55:Y66 S10:Y27 V7:Y9" name="customEntity"/>
+    <protectedRange sqref="G8 K8" name="Contact Fields_2"/>
+    <protectedRange sqref="H7:I26" name="Contact Fields_5"/>
+    <protectedRange sqref="L7:M26" name="Contact Fields_6"/>
+    <protectedRange sqref="P7:Q26" name="Contact Fields_7"/>
+    <protectedRange sqref="S7:U9" name="customEntity_1"/>
+    <protectedRange sqref="S28:Y29 S42:Y42" name="customEntities"/>
+    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W26:Y26"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G26:I26"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:AG48">
-    <cfRule type="expression" dxfId="11" priority="11">
+  <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
+    <cfRule type="expression" dxfId="79" priority="105">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="78" priority="106">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W51:Y61">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="W56:Y66">
+    <cfRule type="expression" dxfId="77" priority="103">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="104">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51:U61">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="S56:U66">
+    <cfRule type="expression" dxfId="75" priority="101">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="102">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O51:Q61">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="O56:Q66">
+    <cfRule type="expression" dxfId="73" priority="99">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="100">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:M61">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="K56:M66">
+    <cfRule type="expression" dxfId="71" priority="97">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="98">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:I61">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C51="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D51="x"</formula>
+  <conditionalFormatting sqref="G56:I66">
+    <cfRule type="expression" dxfId="69" priority="95">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="96">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 Y39:Y48 U39:U48 Q39:Q48 M39:M48 I39:I48 I51:I61 M51:M61 Q51:Q61 U51:U61 Y51:Y61" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="67" priority="83">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="84">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="expression" dxfId="65" priority="75">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="76">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="62">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M23">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M8">
+    <cfRule type="expression" dxfId="57" priority="57">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:M24">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q8 P10:Q23">
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="51" priority="49">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:Q24">
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:U9">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:AE54">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>$C54="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$D54="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O31">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30:Q31">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O41">
+    <cfRule type="expression" dxfId="33" priority="27">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="28">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:Q41">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K31">
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:M31">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K41">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:M41">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G31">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I31">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G41">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I41">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:Y40">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:Y52">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:Y53">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$C53="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$D53="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41:Y41">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z50">
+    <cfRule type="expression" dxfId="5" priority="39">
+      <formula>$C54="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="40">
+      <formula>$D54="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36 Z41:Z48">
+    <cfRule type="expression" dxfId="3" priority="41">
+      <formula>$C39="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="42">
+      <formula>$D39="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z49 Z37:Z40">
+    <cfRule type="expression" dxfId="1" priority="43">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="44">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56:Y66 I56:I66 M56:M66 Q56:Q66 U56:U66 Q43:Q53 I43:I53 M43:M53 M7:M26 I7:I26 Q7:Q26 U7:U26 Y7:Y26" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
       <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{166D9868-EB1B-4D38-85AC-98BE1E6B5C19}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4519,6 +5933,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4727,22 +6156,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4759,29 +6198,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74E69F-62A5-4960-B2F6-8FADAD29532B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3AD18-F3CB-43E2-B76E-65F9FA8B5D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D81DA8D0-66E0-4A2D-B9CC-149DDC723B9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{F28BD485-E2DE-413E-AB02-5D17C7F87BE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
   <si>
@@ -190,12 +228,6 @@
     <t>CRM System: SAGE</t>
   </si>
   <si>
-    <t>SAGE: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAGE: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -374,13 +406,19 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +507,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1784,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1858,9 +1903,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1971,6 +2013,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,45 +2069,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3610,12 +3652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,8 +3704,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3677,156 +3719,156 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
+      <c r="G4" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="138" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="O4" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="S4" s="135" t="s">
+      <c r="K4" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="137"/>
-      <c r="W4" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="137"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="O4" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="S4" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="132"/>
+      <c r="U4" s="133"/>
+      <c r="W4" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="133"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="74" t="s">
+      <c r="T6" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="73" t="s">
+      <c r="W6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="74" t="s">
+      <c r="X6" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="75" t="s">
+      <c r="Y6" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="36"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="62"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="62"/>
-      <c r="O7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="62"/>
-      <c r="S7" s="76"/>
+      <c r="Q7" s="61"/>
+      <c r="S7" s="75"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="77"/>
-      <c r="W7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="W7" s="75"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="77"/>
-    </row>
-    <row r="8" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="Y7" s="76"/>
+    </row>
+    <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="G8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="G8" s="61" t="s">
+      <c r="I8" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="L8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="65"/>
-      <c r="S8" s="79" t="s">
+      <c r="Q8" s="64"/>
+      <c r="S8" s="78" t="s">
         <v>23</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="78"/>
-      <c r="W8" s="79"/>
+      <c r="U8" s="77"/>
+      <c r="W8" s="78"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="78"/>
+      <c r="Y8" s="77"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3836,38 +3878,38 @@
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
-      <c r="G9" s="64" t="s">
-        <v>77</v>
+      <c r="G9" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="64" t="s">
-        <v>77</v>
+      <c r="K9" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="63"/>
-      <c r="S9" s="79" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="62"/>
+      <c r="S9" s="78" t="s">
         <v>25</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="78"/>
-      <c r="W9" s="79"/>
+      <c r="U9" s="77"/>
+      <c r="W9" s="78"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="78"/>
+      <c r="Y9" s="77"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3877,34 +3919,34 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
-      <c r="G10" s="64" t="s">
-        <v>78</v>
+      <c r="G10" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="64" t="s">
-        <v>78</v>
+      <c r="K10" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="65"/>
-      <c r="S10" s="79"/>
+      <c r="Q10" s="64"/>
+      <c r="S10" s="78"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="78"/>
-      <c r="W10" s="79"/>
+      <c r="U10" s="77"/>
+      <c r="W10" s="78"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="78"/>
+      <c r="Y10" s="77"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3914,34 +3956,34 @@
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="65"/>
-      <c r="S11" s="79"/>
+      <c r="Q11" s="64"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="U11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="78"/>
+      <c r="Y11" s="77"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3951,34 +3993,34 @@
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
-      <c r="G12" s="64" t="s">
-        <v>102</v>
+      <c r="G12" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="65"/>
-      <c r="O12" s="64" t="s">
-        <v>70</v>
+      <c r="M12" s="64"/>
+      <c r="O12" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="79"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="78"/>
-      <c r="W12" s="79"/>
+      <c r="U12" s="77"/>
+      <c r="W12" s="78"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="78"/>
+      <c r="Y12" s="77"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3988,83 +4030,83 @@
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="61" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="60" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="O13" s="60" t="s">
         <v>5</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="79"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="78"/>
-      <c r="W13" s="79"/>
+      <c r="U13" s="77"/>
+      <c r="W13" s="78"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="78"/>
-    </row>
-    <row r="14" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="Y13" s="77"/>
+    </row>
+    <row r="14" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="G14" s="66" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="G14" s="65" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="66" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="67" t="s">
+      <c r="L14" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O14" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="67" t="s">
+      <c r="P14" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="80"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="81"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="81"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="80"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="80"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -4074,40 +4116,40 @@
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="67" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="68" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="67" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="79"/>
+      <c r="S15" s="78"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="78"/>
-      <c r="W15" s="79"/>
+      <c r="U15" s="77"/>
+      <c r="W15" s="78"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="78"/>
+      <c r="Y15" s="77"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -4117,40 +4159,40 @@
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
-      <c r="G16" s="64" t="s">
-        <v>79</v>
+      <c r="G16" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="64" t="s">
-        <v>79</v>
+      <c r="K16" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="64" t="s">
-        <v>79</v>
+      <c r="O16" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="79"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="U16" s="77"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="78"/>
+      <c r="Y16" s="77"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -4160,40 +4202,40 @@
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="63" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="78"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="78"/>
-      <c r="W17" s="79"/>
+      <c r="U17" s="77"/>
+      <c r="W17" s="78"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="78"/>
+      <c r="Y17" s="77"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -4203,36 +4245,36 @@
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="37"/>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="63" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5"/>
-      <c r="M18" s="65"/>
-      <c r="O18" s="64" t="s">
+      <c r="M18" s="64"/>
+      <c r="O18" s="63" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="79"/>
+      <c r="S18" s="78"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="78"/>
-      <c r="W18" s="79"/>
+      <c r="U18" s="77"/>
+      <c r="W18" s="78"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="78"/>
+      <c r="Y18" s="77"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4242,53 +4284,53 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="65"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="64"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="65"/>
-      <c r="O19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="65"/>
-      <c r="S19" s="79"/>
+      <c r="Q19" s="64"/>
+      <c r="S19" s="78"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="78"/>
-      <c r="W19" s="79"/>
+      <c r="U19" s="77"/>
+      <c r="W19" s="78"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="78"/>
-    </row>
-    <row r="20" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="Y19" s="77"/>
+    </row>
+    <row r="20" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="66" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="G20" s="65" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="67"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="67"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="81"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="81"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="66"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="66"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="80"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="80"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -4298,40 +4340,40 @@
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="64" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="63" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="64" t="s">
-        <v>83</v>
+      <c r="O21" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="79"/>
+      <c r="S21" s="78"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="78"/>
-      <c r="W21" s="79"/>
+      <c r="U21" s="77"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="78"/>
+      <c r="Y21" s="77"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4341,145 +4383,145 @@
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="37"/>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="60" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="61" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="60" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="60" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="76"/>
+      <c r="S22" s="75"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="77"/>
-      <c r="W22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="W22" s="75"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="77"/>
+      <c r="Y22" s="76"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
-      <c r="G23" s="61" t="s">
-        <v>71</v>
+      <c r="G23" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="61" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="61"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="62"/>
-      <c r="O23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="62"/>
-      <c r="S23" s="76"/>
+      <c r="Q23" s="61"/>
+      <c r="S23" s="75"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="77"/>
-      <c r="W23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="W23" s="75"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="77"/>
+      <c r="Y23" s="76"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="37"/>
-      <c r="G24" s="61" t="s">
-        <v>73</v>
+      <c r="G24" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="61" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="61" t="s">
-        <v>73</v>
+      <c r="K24" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="61" t="s">
-        <v>73</v>
+      <c r="O24" s="60" t="s">
+        <v>71</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="76"/>
+      <c r="S24" s="75"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="77"/>
-      <c r="W24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="W24" s="75"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="77"/>
+      <c r="Y24" s="76"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="37"/>
-      <c r="G25" s="61" t="s">
-        <v>75</v>
+      <c r="G25" s="60" t="s">
+        <v>73</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="61" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="62"/>
-      <c r="O25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="62"/>
-      <c r="S25" s="76"/>
+      <c r="Q25" s="61"/>
+      <c r="S25" s="75"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="77"/>
-      <c r="W25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="W25" s="75"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="77"/>
+      <c r="Y25" s="76"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
@@ -4487,22 +4529,22 @@
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="38"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="72"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="84"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="84"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="83"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="83"/>
     </row>
     <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="8"/>
@@ -4515,718 +4557,718 @@
       <c r="O27" s="8"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="9"/>
-      <c r="S27" s="56"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="56"/>
       <c r="W27" s="8"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="G28" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="126"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="126"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="130"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="G28" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="142" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125" t="s">
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="104" t="s">
+      <c r="H29" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="109" t="s">
+      <c r="I29" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="108" t="s">
+      <c r="K29" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="L29" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="109" t="s">
+      <c r="M29" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="58" t="s">
+      <c r="O29" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="59" t="s">
+      <c r="P29" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="73" t="s">
+      <c r="S29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="74" t="s">
+      <c r="T29" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="U29" s="75" t="s">
+      <c r="U29" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="W29" s="73" t="s">
+      <c r="W29" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X29" s="74" t="s">
+      <c r="X29" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="Y29" s="75" t="s">
+      <c r="Y29" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="91"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="61"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="65"/>
-      <c r="K30" s="61"/>
+      <c r="I30" s="64"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="65"/>
-      <c r="O30" s="61"/>
+      <c r="M30" s="64"/>
+      <c r="O30" s="60"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="65"/>
-      <c r="S30" s="79"/>
+      <c r="Q30" s="64"/>
+      <c r="S30" s="78"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="78"/>
-      <c r="W30" s="79"/>
+      <c r="U30" s="77"/>
+      <c r="W30" s="78"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="78"/>
+      <c r="Y30" s="77"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="90"/>
-      <c r="G31" s="61"/>
+        <v>89</v>
+      </c>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="89"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="65"/>
-      <c r="K31" s="61"/>
+      <c r="I31" s="64"/>
+      <c r="K31" s="60"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="65"/>
-      <c r="O31" s="61"/>
+      <c r="M31" s="64"/>
+      <c r="O31" s="60"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="65"/>
-      <c r="S31" s="79"/>
+      <c r="Q31" s="64"/>
+      <c r="S31" s="78"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="78"/>
-      <c r="W31" s="79"/>
+      <c r="U31" s="77"/>
+      <c r="W31" s="78"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="78"/>
+      <c r="Y31" s="77"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="95"/>
-      <c r="G32" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="94"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="65"/>
-      <c r="K32" s="61"/>
+      <c r="I32" s="64"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="65"/>
-      <c r="O32" s="61"/>
+      <c r="M32" s="64"/>
+      <c r="O32" s="60"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="65"/>
-      <c r="S32" s="79"/>
+      <c r="Q32" s="64"/>
+      <c r="S32" s="78"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="78"/>
-      <c r="W32" s="79"/>
+      <c r="U32" s="77"/>
+      <c r="W32" s="78"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="78"/>
+      <c r="Y32" s="77"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="95"/>
-      <c r="G33" s="61"/>
+        <v>91</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="94"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="65"/>
-      <c r="K33" s="61"/>
+      <c r="I33" s="64"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="65"/>
-      <c r="O33" s="61"/>
+      <c r="M33" s="64"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="65"/>
-      <c r="S33" s="79"/>
+      <c r="Q33" s="64"/>
+      <c r="S33" s="78"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="78"/>
-      <c r="W33" s="79"/>
+      <c r="U33" s="77"/>
+      <c r="W33" s="78"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="78"/>
+      <c r="Y33" s="77"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="95"/>
-      <c r="G34" s="61"/>
+        <v>92</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="94"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="65"/>
-      <c r="K34" s="61"/>
+      <c r="I34" s="64"/>
+      <c r="K34" s="60"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="65"/>
-      <c r="O34" s="61"/>
+      <c r="M34" s="64"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="65"/>
-      <c r="S34" s="79"/>
+      <c r="Q34" s="64"/>
+      <c r="S34" s="78"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="78"/>
-      <c r="W34" s="79"/>
+      <c r="U34" s="77"/>
+      <c r="W34" s="78"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="78"/>
+      <c r="Y34" s="77"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="95"/>
-      <c r="G35" s="61"/>
+        <v>93</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="94"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="65"/>
-      <c r="K35" s="61"/>
+      <c r="I35" s="64"/>
+      <c r="K35" s="60"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="65"/>
-      <c r="O35" s="61"/>
+      <c r="M35" s="64"/>
+      <c r="O35" s="60"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="65"/>
-      <c r="S35" s="79"/>
+      <c r="Q35" s="64"/>
+      <c r="S35" s="78"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="78"/>
-      <c r="W35" s="79"/>
+      <c r="U35" s="77"/>
+      <c r="W35" s="78"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="78"/>
+      <c r="Y35" s="77"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="95"/>
-      <c r="G36" s="61"/>
+        <v>94</v>
+      </c>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="94"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="65"/>
-      <c r="K36" s="61"/>
+      <c r="I36" s="64"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="65"/>
-      <c r="O36" s="61"/>
+      <c r="M36" s="64"/>
+      <c r="O36" s="60"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="65"/>
-      <c r="S36" s="79"/>
+      <c r="Q36" s="64"/>
+      <c r="S36" s="78"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="78"/>
-      <c r="W36" s="79"/>
+      <c r="U36" s="77"/>
+      <c r="W36" s="78"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="78"/>
+      <c r="Y36" s="77"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="95"/>
-      <c r="G37" s="61"/>
+        <v>95</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="94"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="65"/>
-      <c r="K37" s="61"/>
+      <c r="I37" s="64"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="65"/>
-      <c r="O37" s="61"/>
+      <c r="M37" s="64"/>
+      <c r="O37" s="60"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="65"/>
-      <c r="S37" s="79"/>
+      <c r="Q37" s="64"/>
+      <c r="S37" s="78"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="78"/>
-      <c r="W37" s="79"/>
+      <c r="U37" s="77"/>
+      <c r="W37" s="78"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="78"/>
+      <c r="Y37" s="77"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="95"/>
-      <c r="G38" s="61"/>
+        <v>96</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="94"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="65"/>
-      <c r="K38" s="61"/>
+      <c r="I38" s="64"/>
+      <c r="K38" s="60"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="65"/>
-      <c r="O38" s="61"/>
+      <c r="M38" s="64"/>
+      <c r="O38" s="60"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="65"/>
-      <c r="S38" s="79"/>
+      <c r="Q38" s="64"/>
+      <c r="S38" s="78"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="U38" s="77"/>
+      <c r="W38" s="78"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="78"/>
+      <c r="Y38" s="77"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="95"/>
-      <c r="G39" s="61"/>
+        <v>97</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="94"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="65"/>
-      <c r="K39" s="61"/>
+      <c r="I39" s="64"/>
+      <c r="K39" s="60"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="65"/>
-      <c r="O39" s="61"/>
+      <c r="M39" s="64"/>
+      <c r="O39" s="60"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="65"/>
-      <c r="S39" s="79"/>
+      <c r="Q39" s="64"/>
+      <c r="S39" s="78"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="78"/>
-      <c r="W39" s="79"/>
+      <c r="U39" s="77"/>
+      <c r="W39" s="78"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="78"/>
+      <c r="Y39" s="77"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="98"/>
-      <c r="G40" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="97"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="62"/>
-      <c r="K40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="K40" s="60"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="62"/>
-      <c r="O40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="O40" s="60"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="62"/>
-      <c r="S40" s="76"/>
+      <c r="Q40" s="61"/>
+      <c r="S40" s="75"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="77"/>
-      <c r="W40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="W40" s="75"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="77"/>
+      <c r="Y40" s="76"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="98"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="72"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="72"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="72"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="84"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="84"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="97"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="71"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="71"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="83"/>
+      <c r="W41" s="81"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="83"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117" t="s">
+      <c r="A42" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="58" t="s">
+      <c r="K42" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="59" t="s">
+      <c r="L42" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="105" t="s">
+      <c r="O42" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="106" t="s">
+      <c r="P42" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="107" t="s">
+      <c r="Q42" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="113" t="s">
+      <c r="S42" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="T42" s="114" t="s">
+      <c r="T42" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="U42" s="115" t="s">
+      <c r="U42" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="W42" s="113" t="s">
+      <c r="W42" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="X42" s="114" t="s">
+      <c r="X42" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="Y42" s="115" t="s">
+      <c r="Y42" s="114" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="90"/>
-      <c r="G43" s="64"/>
+      <c r="A43" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="89"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="65"/>
-      <c r="K43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="65"/>
-      <c r="O43" s="68"/>
+      <c r="M43" s="64"/>
+      <c r="O43" s="67"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="69"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="112"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="112"/>
+      <c r="Q43" s="68"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="111"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="110"/>
+      <c r="Y43" s="111"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="95"/>
-      <c r="G44" s="64"/>
+        <v>90</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="94"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="65"/>
-      <c r="K44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="65"/>
-      <c r="O44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="O44" s="63"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="65"/>
-      <c r="S44" s="79"/>
+      <c r="Q44" s="64"/>
+      <c r="S44" s="78"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="78"/>
-      <c r="W44" s="79"/>
+      <c r="U44" s="77"/>
+      <c r="W44" s="78"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="78"/>
+      <c r="Y44" s="77"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="95"/>
-      <c r="G45" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="94"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="65"/>
-      <c r="K45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="65"/>
-      <c r="O45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="O45" s="63"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="65"/>
-      <c r="S45" s="79"/>
+      <c r="Q45" s="64"/>
+      <c r="S45" s="78"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="78"/>
-      <c r="W45" s="79"/>
+      <c r="U45" s="77"/>
+      <c r="W45" s="78"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="78"/>
+      <c r="Y45" s="77"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="95"/>
-      <c r="G46" s="64"/>
+        <v>92</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="94"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="65"/>
-      <c r="K46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="65"/>
-      <c r="O46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="65"/>
-      <c r="S46" s="79"/>
+      <c r="Q46" s="64"/>
+      <c r="S46" s="78"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="78"/>
-      <c r="W46" s="79"/>
+      <c r="U46" s="77"/>
+      <c r="W46" s="78"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="78"/>
+      <c r="Y46" s="77"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="95"/>
-      <c r="G47" s="64"/>
+        <v>93</v>
+      </c>
+      <c r="B47" s="92"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="94"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="65"/>
-      <c r="K47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="65"/>
-      <c r="O47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="O47" s="63"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="65"/>
-      <c r="S47" s="79"/>
+      <c r="Q47" s="64"/>
+      <c r="S47" s="78"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="78"/>
-      <c r="W47" s="79"/>
+      <c r="U47" s="77"/>
+      <c r="W47" s="78"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="78"/>
+      <c r="Y47" s="77"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="95"/>
-      <c r="G48" s="64"/>
+        <v>94</v>
+      </c>
+      <c r="B48" s="92"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="94"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="65"/>
-      <c r="K48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="65"/>
-      <c r="O48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="65"/>
-      <c r="S48" s="79"/>
+      <c r="Q48" s="64"/>
+      <c r="S48" s="78"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="78"/>
-      <c r="W48" s="79"/>
+      <c r="U48" s="77"/>
+      <c r="W48" s="78"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="78"/>
+      <c r="Y48" s="77"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="95"/>
-      <c r="G49" s="64"/>
+        <v>95</v>
+      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="94"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="65"/>
-      <c r="K49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="65"/>
-      <c r="O49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="O49" s="63"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="65"/>
-      <c r="S49" s="79"/>
+      <c r="Q49" s="64"/>
+      <c r="S49" s="78"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="78"/>
-      <c r="W49" s="79"/>
+      <c r="U49" s="77"/>
+      <c r="W49" s="78"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="78"/>
+      <c r="Y49" s="77"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="95"/>
-      <c r="G50" s="64"/>
+        <v>96</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="94"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="65"/>
-      <c r="K50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="65"/>
-      <c r="O50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="O50" s="63"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="65"/>
-      <c r="S50" s="79"/>
+      <c r="Q50" s="64"/>
+      <c r="S50" s="78"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="78"/>
-      <c r="W50" s="79"/>
+      <c r="U50" s="77"/>
+      <c r="W50" s="78"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="78"/>
+      <c r="Y50" s="77"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="95"/>
-      <c r="G51" s="64"/>
+        <v>97</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="94"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="65"/>
-      <c r="K51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="65"/>
-      <c r="O51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="O51" s="63"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="65"/>
-      <c r="S51" s="79"/>
+      <c r="Q51" s="64"/>
+      <c r="S51" s="78"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="78"/>
-      <c r="W51" s="79"/>
+      <c r="U51" s="77"/>
+      <c r="W51" s="78"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="78"/>
+      <c r="Y51" s="77"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="98"/>
-      <c r="G52" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="B52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="97"/>
+      <c r="G52" s="60"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="62"/>
-      <c r="K52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="K52" s="60"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="62"/>
-      <c r="O52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="O52" s="60"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="62"/>
-      <c r="S52" s="76"/>
+      <c r="Q52" s="61"/>
+      <c r="S52" s="75"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="77"/>
-      <c r="W52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="W52" s="75"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="77"/>
+      <c r="Y52" s="76"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="101"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="72"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="72"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="72"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="84"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="83"/>
-      <c r="Y53" s="84"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="100"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="71"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="71"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="71"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="83"/>
+      <c r="W53" s="81"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="83"/>
     </row>
     <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="8"/>
@@ -5241,7 +5283,7 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="117" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -5252,49 +5294,49 @@
       <c r="E55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="G55" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="I55" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="58" t="s">
+      <c r="K55" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="59" t="s">
+      <c r="L55" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M55" s="60" t="s">
+      <c r="M55" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O55" s="58" t="s">
+      <c r="O55" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P55" s="59" t="s">
+      <c r="P55" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Q55" s="60" t="s">
+      <c r="Q55" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S55" s="73" t="s">
+      <c r="S55" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T55" s="74" t="s">
+      <c r="T55" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="U55" s="75" t="s">
+      <c r="U55" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="W55" s="73" t="s">
+      <c r="W55" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X55" s="74" t="s">
+      <c r="X55" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="Y55" s="75" t="s">
+      <c r="Y55" s="74" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5302,259 +5344,259 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="134"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="137"/>
       <c r="E56" s="33"/>
-      <c r="G56" s="64"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="65"/>
-      <c r="K56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="K56" s="63"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="65"/>
-      <c r="O56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="O56" s="63"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="65"/>
-      <c r="S56" s="79"/>
+      <c r="Q56" s="64"/>
+      <c r="S56" s="78"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="78"/>
-      <c r="W56" s="79"/>
+      <c r="U56" s="77"/>
+      <c r="W56" s="78"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="78"/>
+      <c r="Y56" s="77"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="34"/>
-      <c r="G57" s="64"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="65"/>
-      <c r="K57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="K57" s="63"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="65"/>
-      <c r="O57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="O57" s="63"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="65"/>
-      <c r="S57" s="79"/>
+      <c r="Q57" s="64"/>
+      <c r="S57" s="78"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="78"/>
-      <c r="W57" s="79"/>
+      <c r="U57" s="77"/>
+      <c r="W57" s="78"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="78"/>
+      <c r="Y57" s="77"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="127"/>
-      <c r="D58" s="128"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="140"/>
       <c r="E58" s="34"/>
-      <c r="G58" s="64"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="65"/>
-      <c r="K58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="K58" s="63"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="65"/>
-      <c r="O58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="O58" s="63"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="65"/>
-      <c r="S58" s="79"/>
+      <c r="Q58" s="64"/>
+      <c r="S58" s="78"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="78"/>
-      <c r="W58" s="79"/>
+      <c r="U58" s="77"/>
+      <c r="W58" s="78"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="78"/>
+      <c r="Y58" s="77"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="140"/>
       <c r="E59" s="34"/>
-      <c r="G59" s="64"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="65"/>
-      <c r="K59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="65"/>
-      <c r="O59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="O59" s="63"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="65"/>
-      <c r="S59" s="79"/>
+      <c r="Q59" s="64"/>
+      <c r="S59" s="78"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="78"/>
-      <c r="W59" s="79"/>
+      <c r="U59" s="77"/>
+      <c r="W59" s="78"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="78"/>
+      <c r="Y59" s="77"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="128"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="140"/>
       <c r="E60" s="34"/>
-      <c r="G60" s="64"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="65"/>
-      <c r="K60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="65"/>
-      <c r="O60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="O60" s="63"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="65"/>
-      <c r="S60" s="79"/>
+      <c r="Q60" s="64"/>
+      <c r="S60" s="78"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="78"/>
-      <c r="W60" s="79"/>
+      <c r="U60" s="77"/>
+      <c r="W60" s="78"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="78"/>
+      <c r="Y60" s="77"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="43"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="34"/>
-      <c r="G61" s="64"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="65"/>
-      <c r="K61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="65"/>
-      <c r="O61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="O61" s="63"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="65"/>
-      <c r="S61" s="79"/>
+      <c r="Q61" s="64"/>
+      <c r="S61" s="78"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="78"/>
-      <c r="W61" s="79"/>
+      <c r="U61" s="77"/>
+      <c r="W61" s="78"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="78"/>
+      <c r="Y61" s="77"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="128"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="140"/>
       <c r="E62" s="34"/>
-      <c r="G62" s="64"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="65"/>
-      <c r="K62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="K62" s="63"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="65"/>
-      <c r="O62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="O62" s="63"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="65"/>
-      <c r="S62" s="79"/>
+      <c r="Q62" s="64"/>
+      <c r="S62" s="78"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="78"/>
-      <c r="W62" s="79"/>
+      <c r="U62" s="77"/>
+      <c r="W62" s="78"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="78"/>
+      <c r="Y62" s="77"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="34"/>
-      <c r="G63" s="64"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="65"/>
-      <c r="K63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="K63" s="63"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="65"/>
-      <c r="O63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="O63" s="63"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="65"/>
-      <c r="S63" s="79"/>
+      <c r="Q63" s="64"/>
+      <c r="S63" s="78"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="78"/>
-      <c r="W63" s="79"/>
+      <c r="U63" s="77"/>
+      <c r="W63" s="78"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="78"/>
+      <c r="Y63" s="77"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="128"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="34"/>
-      <c r="G64" s="64"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="65"/>
-      <c r="K64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="65"/>
-      <c r="O64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="O64" s="63"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="65"/>
-      <c r="S64" s="79"/>
+      <c r="Q64" s="64"/>
+      <c r="S64" s="78"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="78"/>
-      <c r="W64" s="79"/>
+      <c r="U64" s="77"/>
+      <c r="W64" s="78"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="78"/>
+      <c r="Y64" s="77"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="128"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="140"/>
       <c r="E65" s="34"/>
-      <c r="G65" s="64"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="65"/>
-      <c r="K65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="65"/>
-      <c r="O65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="O65" s="63"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="65"/>
-      <c r="S65" s="79"/>
+      <c r="Q65" s="64"/>
+      <c r="S65" s="78"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="78"/>
-      <c r="W65" s="79"/>
+      <c r="U65" s="77"/>
+      <c r="W65" s="78"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="78"/>
+      <c r="Y65" s="77"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="131"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143"/>
       <c r="E66" s="35"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="72"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="72"/>
-      <c r="S66" s="82"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="84"/>
-      <c r="W66" s="82"/>
-      <c r="X66" s="83"/>
-      <c r="Y66" s="84"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="71"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="71"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="71"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="82"/>
+      <c r="U66" s="83"/>
+      <c r="W66" s="81"/>
+      <c r="X66" s="82"/>
+      <c r="Y66" s="83"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5573,26 +5615,26 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
@@ -5915,39 +5957,22 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56:Y66 I56:I66 M56:M66 Q56:Q66 U56:U66 Q43:Q53 I43:I53 M43:M53 M7:M26 I7:I26 Q7:Q26 U7:U26 Y7:Y26" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{166D9868-EB1B-4D38-85AC-98BE1E6B5C19}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{C88438CE-C103-41E2-88E5-EDF0D7D32BFD}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6156,32 +6181,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6198,4 +6213,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3AD18-F3CB-43E2-B76E-65F9FA8B5D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD2A7E-AA8A-452D-8CDF-7E5A34321306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2013,6 +2013,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2031,50 +2070,55 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3029,11 +3073,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="84"/>
-      <tableStyleElement type="headerRow" dxfId="83"/>
-      <tableStyleElement type="firstColumn" dxfId="82"/>
-      <tableStyleElement type="firstRowStripe" dxfId="81"/>
-      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="88"/>
+      <tableStyleElement type="headerRow" dxfId="87"/>
+      <tableStyleElement type="firstColumn" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3656,8 +3700,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C8:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,32 +3763,32 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="134" t="s">
+      <c r="K4" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="O4" s="134" t="s">
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="O4" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="S4" s="131" t="s">
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="S4" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
-      <c r="W4" s="131" t="s">
+      <c r="T4" s="135"/>
+      <c r="U4" s="136"/>
+      <c r="W4" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="136"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4572,35 +4616,35 @@
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
       <c r="E28" s="120"/>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="126"/>
-      <c r="I28" s="127"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="140"/>
       <c r="J28" s="84"/>
-      <c r="K28" s="125" t="s">
+      <c r="K28" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="126"/>
-      <c r="M28" s="127"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
       <c r="N28" s="84"/>
-      <c r="O28" s="125" t="s">
+      <c r="O28" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
       <c r="R28" s="85"/>
-      <c r="S28" s="128" t="s">
+      <c r="S28" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="T28" s="129"/>
-      <c r="U28" s="130"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="143"/>
       <c r="V28" s="85"/>
-      <c r="W28" s="128" t="s">
+      <c r="W28" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="130"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="143"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
@@ -4716,7 +4760,7 @@
       <c r="A32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="93"/>
       <c r="D32" s="92"/>
       <c r="E32" s="94"/>
@@ -4740,7 +4784,7 @@
       <c r="A33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="92"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="93"/>
       <c r="D33" s="92"/>
       <c r="E33" s="94"/>
@@ -4764,7 +4808,7 @@
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="92"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="93"/>
       <c r="D34" s="92"/>
       <c r="E34" s="94"/>
@@ -4788,7 +4832,7 @@
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="93"/>
       <c r="D35" s="92"/>
       <c r="E35" s="94"/>
@@ -4812,7 +4856,7 @@
       <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="92"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="93"/>
       <c r="D36" s="92"/>
       <c r="E36" s="94"/>
@@ -4836,7 +4880,7 @@
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="92"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="93"/>
       <c r="D37" s="92"/>
       <c r="E37" s="94"/>
@@ -4860,7 +4904,7 @@
       <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="92"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="93"/>
       <c r="D38" s="92"/>
       <c r="E38" s="94"/>
@@ -4884,7 +4928,7 @@
       <c r="A39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="92"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="93"/>
       <c r="D39" s="92"/>
       <c r="E39" s="94"/>
@@ -4908,7 +4952,7 @@
       <c r="A40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="96"/>
       <c r="D40" s="95"/>
       <c r="E40" s="97"/>
@@ -5344,11 +5388,11 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="133"/>
       <c r="E56" s="33"/>
       <c r="G56" s="63"/>
       <c r="H56" s="5"/>
@@ -5370,11 +5414,11 @@
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="140"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
       <c r="E57" s="34"/>
       <c r="G57" s="63"/>
       <c r="H57" s="5"/>
@@ -5396,11 +5440,11 @@
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="139"/>
-      <c r="D58" s="140"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="34"/>
       <c r="G58" s="63"/>
       <c r="H58" s="5"/>
@@ -5422,11 +5466,11 @@
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="139"/>
-      <c r="D59" s="140"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="34"/>
       <c r="G59" s="63"/>
       <c r="H59" s="5"/>
@@ -5446,9 +5490,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="140"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
       <c r="E60" s="34"/>
       <c r="G60" s="63"/>
       <c r="H60" s="5"/>
@@ -5490,9 +5534,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="140"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
       <c r="E62" s="34"/>
       <c r="G62" s="63"/>
       <c r="H62" s="5"/>
@@ -5512,9 +5556,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="140"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="127"/>
       <c r="E63" s="34"/>
       <c r="G63" s="63"/>
       <c r="H63" s="5"/>
@@ -5534,9 +5578,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="140"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="127"/>
       <c r="E64" s="34"/>
       <c r="G64" s="63"/>
       <c r="H64" s="5"/>
@@ -5556,9 +5600,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="140"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="127"/>
       <c r="E65" s="34"/>
       <c r="G65" s="63"/>
       <c r="H65" s="5"/>
@@ -5578,9 +5622,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="141"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="143"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="35"/>
       <c r="G66" s="69"/>
       <c r="H66" s="70"/>
@@ -5615,37 +5659,53 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
-    <cfRule type="expression" dxfId="79" priority="105">
+    <cfRule type="expression" dxfId="83" priority="109">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="106">
+    <cfRule type="expression" dxfId="82" priority="110">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
+    <cfRule type="expression" dxfId="81" priority="107">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="108">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56:U66">
+    <cfRule type="expression" dxfId="79" priority="105">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="106">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O56:Q66">
     <cfRule type="expression" dxfId="77" priority="103">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5653,7 +5713,7 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S56:U66">
+  <conditionalFormatting sqref="K56:M66">
     <cfRule type="expression" dxfId="75" priority="101">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5661,7 +5721,7 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O56:Q66">
+  <conditionalFormatting sqref="G56:I66">
     <cfRule type="expression" dxfId="73" priority="99">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5669,47 +5729,47 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="71" priority="97">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="98">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="69" priority="95">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="96">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="67" priority="83">
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="84">
+    <cfRule type="expression" dxfId="70" priority="88">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="69" priority="79">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="76">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="63" priority="67">
+    <cfRule type="expression" dxfId="67" priority="71">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="68">
+    <cfRule type="expression" dxfId="66" priority="72">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M23">
+    <cfRule type="expression" dxfId="63" priority="63">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M8">
     <cfRule type="expression" dxfId="61" priority="61">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -5717,244 +5777,236 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M23">
+  <conditionalFormatting sqref="L24:M24">
     <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$C9="x"</formula>
+      <formula>$C24="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M8">
-    <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M24">
-    <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$C24="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q8 P10:Q23">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="52" priority="58">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q24">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:U9">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="41" priority="35">
+  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 N30:N41 J30:J41 R30:R41 A43:R53 A30:F34 B35 A38:F41">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="9" priority="43">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="6" priority="46">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="5" priority="47">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="4" priority="48">
       <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C36="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D36="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5973,6 +6025,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6181,22 +6248,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6213,29 +6290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74E69F-62A5-4960-B2F6-8FADAD29532B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917DC67-40A8-42FB-A27D-E5E7DB2F19A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1971,6 +1971,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,45 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3614,8 +3614,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,32 +3677,32 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="138" t="s">
+      <c r="K4" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="O4" s="138" t="s">
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="O4" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="S4" s="135" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="S4" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="137"/>
-      <c r="W4" s="135" t="s">
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
+      <c r="W4" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="137"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4530,35 +4530,35 @@
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
       <c r="E28" s="121"/>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="85"/>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
       <c r="N28" s="85"/>
-      <c r="O28" s="139" t="s">
+      <c r="O28" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
       <c r="R28" s="86"/>
-      <c r="S28" s="142" t="s">
+      <c r="S28" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="131"/>
       <c r="V28" s="86"/>
-      <c r="W28" s="142" t="s">
+      <c r="W28" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="131"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
@@ -5302,11 +5302,11 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="134"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="138"/>
       <c r="E56" s="33"/>
       <c r="G56" s="64"/>
       <c r="H56" s="5"/>
@@ -5328,11 +5328,11 @@
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
       <c r="E57" s="34"/>
       <c r="G57" s="64"/>
       <c r="H57" s="5"/>
@@ -5354,11 +5354,11 @@
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="127"/>
-      <c r="D58" s="128"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="34"/>
       <c r="G58" s="64"/>
       <c r="H58" s="5"/>
@@ -5380,11 +5380,11 @@
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="141"/>
       <c r="E59" s="34"/>
       <c r="G59" s="64"/>
       <c r="H59" s="5"/>
@@ -5404,9 +5404,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="128"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
       <c r="E60" s="34"/>
       <c r="G60" s="64"/>
       <c r="H60" s="5"/>
@@ -5448,9 +5448,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="128"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="34"/>
       <c r="G62" s="64"/>
       <c r="H62" s="5"/>
@@ -5470,9 +5470,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="34"/>
       <c r="G63" s="64"/>
       <c r="H63" s="5"/>
@@ -5492,9 +5492,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="128"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="34"/>
       <c r="G64" s="64"/>
       <c r="H64" s="5"/>
@@ -5514,9 +5514,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="128"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="34"/>
       <c r="G65" s="64"/>
       <c r="H65" s="5"/>
@@ -5536,9 +5536,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="131"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="144"/>
       <c r="E66" s="35"/>
       <c r="G66" s="70"/>
       <c r="H66" s="71"/>
@@ -5573,26 +5573,26 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
@@ -5915,15 +5915,12 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56:Y66 I56:I66 M56:M66 Q56:Q66 U56:U66 Q43:Q53 I43:I53 M43:M53 M7:M26 I7:I26 Q7:Q26 U7:U26 Y7:Y26" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{166D9868-EB1B-4D38-85AC-98BE1E6B5C19}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y30:Y41 U30:U41 Q31:Q41 Q30 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66" xr:uid="{FFE77307-3EC2-4B8D-99E6-4DEB66F26E73}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5933,18 +5930,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6157,6 +6154,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6169,14 +6174,6 @@
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917DC67-40A8-42FB-A27D-E5E7DB2F19A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C6AEF-2E59-417D-918E-3B5F9F89139F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>SAGE: Custom Entity (optional)</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>SAGE: Person</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1971,6 +1971,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1988,45 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3614,8 +3614,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,39 +3677,41 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="O4" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="S4" s="132" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="S4" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="133"/>
-      <c r="U4" s="134"/>
-      <c r="W4" s="132" t="s">
+      <c r="T4" s="136"/>
+      <c r="U4" s="137"/>
+      <c r="W4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="137"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="39" t="s">
@@ -3789,9 +3791,7 @@
       <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
+      <c r="B8" s="47"/>
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>22</v>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="65" t="s">
         <v>22</v>
@@ -3837,20 +3837,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
       <c r="G9" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="65" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="65" t="s">
         <v>21</v>
@@ -3878,20 +3878,20 @@
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
       <c r="G10" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="65" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="65" t="s">
         <v>21</v>
@@ -3918,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="65" t="s">
         <v>21</v>
@@ -3928,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="65" t="s">
         <v>21</v>
@@ -3952,10 +3952,10 @@
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
       <c r="G12" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="65" t="s">
         <v>21</v>
@@ -3965,10 +3965,10 @@
       <c r="L12" s="5"/>
       <c r="M12" s="65"/>
       <c r="O12" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="65" t="s">
         <v>21</v>
@@ -3992,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="62" t="s">
         <v>21</v>
@@ -4002,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="62" t="s">
         <v>21</v>
@@ -4011,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="62" t="s">
         <v>21</v>
@@ -4035,7 +4035,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="67" t="s">
         <v>21</v>
@@ -4045,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="67" t="s">
         <v>21</v>
@@ -4054,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="67" t="s">
         <v>21</v>
@@ -4078,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="69" t="s">
         <v>21</v>
@@ -4088,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="69" t="s">
         <v>21</v>
@@ -4097,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="69" t="s">
         <v>21</v>
@@ -4118,29 +4118,29 @@
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
       <c r="G16" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="65" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="65" t="s">
         <v>21</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="65" t="s">
         <v>21</v>
@@ -4164,7 +4164,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="65" t="s">
         <v>21</v>
@@ -4174,7 +4174,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="65" t="s">
         <v>21</v>
@@ -4183,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="65" t="s">
         <v>21</v>
@@ -4207,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="65" t="s">
         <v>21</v>
@@ -4222,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="65" t="s">
         <v>21</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="67" t="s">
         <v>21</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="65" t="s">
         <v>21</v>
@@ -4312,16 +4312,16 @@
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="65" t="s">
         <v>21</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="65" t="s">
         <v>21</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="62" t="s">
         <v>21</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="62" t="s">
         <v>21</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="62" t="s">
         <v>21</v>
@@ -4378,17 +4378,17 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
       <c r="G23" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>21</v>
@@ -4409,36 +4409,36 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="37"/>
       <c r="G24" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="I24" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="M24" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="Q24" s="62" t="s">
         <v>22</v>
@@ -4452,17 +4452,17 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="37"/>
       <c r="G25" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="I25" s="62" t="s">
         <v>22</v>
@@ -4524,48 +4524,48 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="120"/>
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
       <c r="E28" s="121"/>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="126" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="128"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
       <c r="R28" s="86"/>
-      <c r="S28" s="129" t="s">
+      <c r="S28" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="T28" s="130"/>
-      <c r="U28" s="131"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="144"/>
       <c r="V28" s="86"/>
-      <c r="W28" s="129" t="s">
+      <c r="W28" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="131"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="123" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>87</v>
       </c>
       <c r="C29" s="124"/>
       <c r="D29" s="124"/>
@@ -4620,15 +4620,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="91" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="92"/>
       <c r="D30" s="91"/>
       <c r="E30" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="61"/>
       <c r="H30" s="6"/>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="91"/>
       <c r="C31" s="92"/>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="93"/>
       <c r="C36" s="94"/>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="94"/>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="96"/>
       <c r="C40" s="97"/>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="117"/>
       <c r="D42" s="117"/>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="89"/>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="93"/>
       <c r="C44" s="94"/>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="93"/>
       <c r="C45" s="94"/>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="93"/>
       <c r="C46" s="94"/>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="93"/>
       <c r="C47" s="94"/>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="93"/>
       <c r="C48" s="94"/>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="93"/>
       <c r="C49" s="94"/>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="94"/>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="93"/>
       <c r="C51" s="94"/>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="96"/>
       <c r="C52" s="97"/>
@@ -5302,11 +5302,11 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
       <c r="E56" s="33"/>
       <c r="G56" s="64"/>
       <c r="H56" s="5"/>
@@ -5328,11 +5328,11 @@
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
       <c r="E57" s="34"/>
       <c r="G57" s="64"/>
       <c r="H57" s="5"/>
@@ -5354,11 +5354,11 @@
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="128"/>
       <c r="E58" s="34"/>
       <c r="G58" s="64"/>
       <c r="H58" s="5"/>
@@ -5380,11 +5380,11 @@
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="128"/>
       <c r="E59" s="34"/>
       <c r="G59" s="64"/>
       <c r="H59" s="5"/>
@@ -5404,9 +5404,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="128"/>
       <c r="E60" s="34"/>
       <c r="G60" s="64"/>
       <c r="H60" s="5"/>
@@ -5448,9 +5448,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="141"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="128"/>
       <c r="E62" s="34"/>
       <c r="G62" s="64"/>
       <c r="H62" s="5"/>
@@ -5470,9 +5470,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="141"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
       <c r="E63" s="34"/>
       <c r="G63" s="64"/>
       <c r="H63" s="5"/>
@@ -5492,9 +5492,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="141"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="128"/>
       <c r="E64" s="34"/>
       <c r="G64" s="64"/>
       <c r="H64" s="5"/>
@@ -5514,9 +5514,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="141"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="128"/>
       <c r="E65" s="34"/>
       <c r="G65" s="64"/>
       <c r="H65" s="5"/>
@@ -5536,9 +5536,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="144"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="35"/>
       <c r="G66" s="70"/>
       <c r="H66" s="71"/>
@@ -5573,26 +5573,26 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
@@ -5930,18 +5930,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6154,14 +6154,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6174,6 +6166,14 @@
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C6AEF-2E59-417D-918E-3B5F9F89139F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9672A75C-1E10-4ECC-AE07-E7618F3CB607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="103">
   <si>
     <t>Website</t>
   </si>
@@ -1971,6 +1971,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,45 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3614,8 +3614,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,32 +3677,32 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="138" t="s">
+      <c r="K4" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="O4" s="138" t="s">
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="O4" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="S4" s="135" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="S4" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="137"/>
-      <c r="W4" s="135" t="s">
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
+      <c r="W4" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="137"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3823,7 +3823,9 @@
       <c r="T8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="78"/>
+      <c r="U8" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="79"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="78"/>
@@ -3864,7 +3866,9 @@
       <c r="T9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="78"/>
+      <c r="U9" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="W9" s="79"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="78"/>
@@ -4530,35 +4534,35 @@
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
       <c r="E28" s="121"/>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="85"/>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
       <c r="N28" s="85"/>
-      <c r="O28" s="139" t="s">
+      <c r="O28" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="141"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
       <c r="R28" s="86"/>
-      <c r="S28" s="142" t="s">
+      <c r="S28" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="144"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="131"/>
       <c r="V28" s="86"/>
-      <c r="W28" s="142" t="s">
+      <c r="W28" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="144"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="131"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
@@ -5302,11 +5306,11 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="133"/>
-      <c r="D56" s="134"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="138"/>
       <c r="E56" s="33"/>
       <c r="G56" s="64"/>
       <c r="H56" s="5"/>
@@ -5328,11 +5332,11 @@
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
       <c r="E57" s="34"/>
       <c r="G57" s="64"/>
       <c r="H57" s="5"/>
@@ -5354,11 +5358,11 @@
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="127"/>
-      <c r="D58" s="128"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="34"/>
       <c r="G58" s="64"/>
       <c r="H58" s="5"/>
@@ -5380,11 +5384,11 @@
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="141"/>
       <c r="E59" s="34"/>
       <c r="G59" s="64"/>
       <c r="H59" s="5"/>
@@ -5404,9 +5408,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="128"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
       <c r="E60" s="34"/>
       <c r="G60" s="64"/>
       <c r="H60" s="5"/>
@@ -5448,9 +5452,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="128"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="34"/>
       <c r="G62" s="64"/>
       <c r="H62" s="5"/>
@@ -5470,9 +5474,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="34"/>
       <c r="G63" s="64"/>
       <c r="H63" s="5"/>
@@ -5492,9 +5496,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="128"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="34"/>
       <c r="G64" s="64"/>
       <c r="H64" s="5"/>
@@ -5514,9 +5518,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="128"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="34"/>
       <c r="G65" s="64"/>
       <c r="H65" s="5"/>
@@ -5536,9 +5540,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="131"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="144"/>
       <c r="E66" s="35"/>
       <c r="G66" s="70"/>
       <c r="H66" s="71"/>
@@ -5573,26 +5577,26 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
@@ -5930,18 +5934,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6154,6 +6158,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6166,14 +6178,6 @@
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9672A75C-1E10-4ECC-AE07-E7618F3CB607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E5431E-E12C-4D59-9D78-B50E4E622D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1971,6 +1971,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1988,45 +2027,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3614,8 +3614,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y56" activeCellId="19" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,32 +3677,32 @@
         <v>35</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="O4" s="135" t="s">
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="S4" s="132" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="S4" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="133"/>
-      <c r="U4" s="134"/>
-      <c r="W4" s="132" t="s">
+      <c r="T4" s="136"/>
+      <c r="U4" s="137"/>
+      <c r="W4" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="137"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4534,35 +4534,35 @@
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
       <c r="E28" s="121"/>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="85"/>
-      <c r="K28" s="126" t="s">
+      <c r="K28" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
       <c r="N28" s="85"/>
-      <c r="O28" s="126" t="s">
+      <c r="O28" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="128"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
       <c r="R28" s="86"/>
-      <c r="S28" s="129" t="s">
+      <c r="S28" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="T28" s="130"/>
-      <c r="U28" s="131"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="144"/>
       <c r="V28" s="86"/>
-      <c r="W28" s="129" t="s">
+      <c r="W28" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="131"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="144"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="122" t="s">
@@ -5306,11 +5306,11 @@
       <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
       <c r="E56" s="33"/>
       <c r="G56" s="64"/>
       <c r="H56" s="5"/>
@@ -5332,11 +5332,11 @@
       <c r="A57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
       <c r="E57" s="34"/>
       <c r="G57" s="64"/>
       <c r="H57" s="5"/>
@@ -5358,11 +5358,11 @@
       <c r="A58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="128"/>
       <c r="E58" s="34"/>
       <c r="G58" s="64"/>
       <c r="H58" s="5"/>
@@ -5384,11 +5384,11 @@
       <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="128"/>
       <c r="E59" s="34"/>
       <c r="G59" s="64"/>
       <c r="H59" s="5"/>
@@ -5408,9 +5408,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="128"/>
       <c r="E60" s="34"/>
       <c r="G60" s="64"/>
       <c r="H60" s="5"/>
@@ -5452,9 +5452,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="141"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="128"/>
       <c r="E62" s="34"/>
       <c r="G62" s="64"/>
       <c r="H62" s="5"/>
@@ -5474,9 +5474,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="141"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
       <c r="E63" s="34"/>
       <c r="G63" s="64"/>
       <c r="H63" s="5"/>
@@ -5496,9 +5496,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="141"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="128"/>
       <c r="E64" s="34"/>
       <c r="G64" s="64"/>
       <c r="H64" s="5"/>
@@ -5518,9 +5518,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="141"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="128"/>
       <c r="E65" s="34"/>
       <c r="G65" s="64"/>
       <c r="H65" s="5"/>
@@ -5540,9 +5540,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="144"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="35"/>
       <c r="G66" s="70"/>
       <c r="H66" s="71"/>
@@ -5577,26 +5577,26 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A27:AG27 N24 J8 N8:O23 R8:R9 A9:K26 L25:Q26 R10:AG26 V8:AG9">
@@ -5923,8 +5923,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y30:Y41 U30:U41 Q31:Q41 Q30 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M66 I56:I66" xr:uid="{FFE77307-3EC2-4B8D-99E6-4DEB66F26E73}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{A30621AF-4848-4DFA-ABA3-DE2872654711}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5934,18 +5934,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6158,14 +6158,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6178,6 +6170,14 @@
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
